--- a/testdata/loginuser1.xlsx
+++ b/testdata/loginuser1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -28,13 +28,13 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
+    <t xml:space="preserve">standard_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secret_sauce</t>
+  </si>
+  <si>
     <t xml:space="preserve">standard_user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secret_sauce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">standard_use</t>
   </si>
   <si>
     <t xml:space="preserve">secret_sauc</t>
@@ -269,10 +269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13:B13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -298,7 +298,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,74 +310,66 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
+      <c r="A7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="1" t="n">
+        <v>6655656</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>565665</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>6655656</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>565665</v>
+        <v>5546654</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>5546654</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
